--- a/markdown/model_priors.xlsx
+++ b/markdown/model_priors.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjoy\Documents\SF_Rockfish_Removals\RockfishSportMort\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9C039D-86F3-4800-B001-F289AD924A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C996C9-4B68-4947-A8E0-5138FF65CBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Coded" sheetId="1" r:id="rId1"/>
     <sheet name="forPub" sheetId="2" r:id="rId2"/>
     <sheet name="comp" sheetId="3" r:id="rId3"/>
     <sheet name="harvp" sheetId="4" r:id="rId4"/>
-    <sheet name="comp_mdwn" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="84">
   <si>
     <t>Prior</t>
   </si>
@@ -413,9 +412,6 @@
   </si>
   <si>
     <t>HARVEST PROPORTION PRIORS:</t>
-  </si>
-  <si>
-    <t>Species_Complex</t>
   </si>
 </sst>
 </file>
@@ -9482,7 +9478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAB967E-925F-4782-9154-55DF58096ABD}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -10914,1855 +10910,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CBBA1C-AC97-439D-B808-B8F8AEB63EC1}">
-  <dimension ref="A1:Q49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="9">
-        <v>5</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K3" s="12">
-        <v>5</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="12">
-        <v>5</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="12">
-        <v>5</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="12">
-        <v>5</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="12">
-        <v>1</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K8" s="12">
-        <v>15</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="12">
-        <v>19</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="12">
-        <v>4</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="12">
-        <v>19</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K10" s="12">
-        <v>4</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12">
-        <v>20</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K11" s="12">
-        <v>4</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K12" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K14" s="9">
-        <v>5</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K15" s="12">
-        <v>10</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="12">
-        <v>0</v>
-      </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="12">
-        <v>10</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="12">
-        <v>0</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="12">
-        <v>10</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="12">
-        <v>0</v>
-      </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="K18" s="12">
-        <v>5</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0</v>
-      </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="K19" s="12">
-        <v>5</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="12">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="12">
-        <v>1</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="K20" s="12">
-        <v>5</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="12">
-        <v>25</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K21" s="12">
-        <v>4</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="12">
-        <v>25</v>
-      </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="12">
-        <v>19</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="12">
-        <v>4</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="12">
-        <v>25</v>
-      </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="12">
-        <v>29</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K23" s="12">
-        <v>4</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="12">
-        <v>0</v>
-      </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K24" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="16"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K26" s="9">
-        <v>5</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K27" s="12">
-        <v>5</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" s="12"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K28" s="12">
-        <v>5</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" s="12">
-        <v>0</v>
-      </c>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K29" s="12">
-        <v>5</v>
-      </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" s="12"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="12">
-        <v>-0.5</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K30" s="12">
-        <v>5</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" s="12"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="12">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K31" s="12">
-        <v>5</v>
-      </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" s="12">
-        <v>0</v>
-      </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="12">
-        <v>-0.5</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K32" s="12">
-        <v>5</v>
-      </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" s="12"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="12">
-        <v>19</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K33" s="12">
-        <v>4</v>
-      </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" s="12"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="19">
-        <v>25</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K34" s="12">
-        <v>4</v>
-      </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N34" s="12">
-        <v>25</v>
-      </c>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="12">
-        <v>35</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K35" s="12">
-        <v>4</v>
-      </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" s="12"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="16">
-        <v>0</v>
-      </c>
-      <c r="G36" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K36" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P36" s="16"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K38" s="9">
-        <v>5</v>
-      </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K39" s="12">
-        <v>5</v>
-      </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O39" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" s="12"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="12">
-        <v>-0.5</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K40" s="12">
-        <v>4</v>
-      </c>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" s="12"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="12">
-        <v>29</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K41" s="12">
-        <v>5</v>
-      </c>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P41" s="12"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="16">
-        <v>0</v>
-      </c>
-      <c r="G42" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J42" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K42" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N42" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" s="16"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="9">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="9">
-        <v>0</v>
-      </c>
-      <c r="K44" s="9">
-        <v>5</v>
-      </c>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O44" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" s="9"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" s="12">
-        <v>0</v>
-      </c>
-      <c r="K45" s="12">
-        <v>5</v>
-      </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P45" s="12"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="G46" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="K46" s="12">
-        <v>4</v>
-      </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N46" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P46" s="12"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="12">
-        <v>29</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" s="12">
-        <v>0</v>
-      </c>
-      <c r="K47" s="12">
-        <v>5</v>
-      </c>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P47" s="12"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="12">
-        <v>0</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J48" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K48" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N48" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O48" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" s="12"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N49" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="O49" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="P49" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/markdown/model_priors.xlsx
+++ b/markdown/model_priors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjoy\Documents\SF_Rockfish_Removals\RockfishSportMort\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C996C9-4B68-4947-A8E0-5138FF65CBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5430AF9-4FA8-4936-82D2-C2BFFE4EEE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Coded" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="85">
   <si>
     <t>Prior</t>
   </si>
@@ -413,6 +413,9 @@
   <si>
     <t>HARVEST PROPORTION PRIORS:</t>
   </si>
+  <si>
+    <t>fixed at 0 for WKMA??</t>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -526,48 +529,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7598,7 +7596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EB88A8-0633-428F-BFF5-598E355F3438}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7612,30 +7610,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="21" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="21" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="21" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="9"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -7685,86 +7683,84 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K3" s="9">
-        <v>5</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="12">
-        <v>5</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="12" t="s">
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
         <v>54</v>
       </c>
       <c r="P4" t="s">
@@ -7772,115 +7768,108 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="12">
-        <v>5</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="12" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6">
         <v>0.01</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="12">
-        <v>5</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="12" t="s">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="12">
-        <v>5</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="12" t="s">
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
         <v>54</v>
       </c>
       <c r="P7" t="s">
@@ -7888,1570 +7877,1467 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="12" t="s">
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="12" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9">
         <v>0.01</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="12">
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
         <v>15</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="12" t="s">
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
         <v>19</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
         <v>4</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
         <v>19</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K11" s="12">
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="12" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
         <v>20</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="12" t="s">
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16" t="s">
+      <c r="E13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="16"/>
+      <c r="J13" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K15" s="9">
-        <v>5</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="9"/>
+      <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>5</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="12">
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16">
         <v>10</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12" t="s">
+      <c r="M16" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="12">
-        <v>0</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12" t="s">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="12" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="19">
-        <v>0</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="12">
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17">
         <v>10</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12" t="s">
+      <c r="M17" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="12">
-        <v>0</v>
-      </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+      <c r="N17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="12" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="12">
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="K18">
         <v>10</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12" t="s">
+      <c r="M18" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="12">
-        <v>0</v>
-      </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12" t="s">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19">
         <v>0.5</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="12">
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19">
         <v>0.25</v>
       </c>
-      <c r="K19" s="12">
-        <v>5</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12" t="s">
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="M19" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="12">
-        <v>0</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12" t="s">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="12">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20">
         <v>0.25</v>
       </c>
-      <c r="K20" s="12">
-        <v>5</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12" t="s">
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="M20" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="N20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="12" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="12">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
         <v>-1</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="12">
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21">
         <v>0.25</v>
       </c>
-      <c r="K21" s="12">
-        <v>5</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12" t="s">
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="12">
-        <v>0</v>
-      </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12" t="s">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="12">
-        <v>25</v>
-      </c>
-      <c r="G22" s="12" t="s">
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="12">
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="K22">
         <v>4</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12" t="s">
+      <c r="M22" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="12">
-        <v>25</v>
-      </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12" t="s">
+      <c r="N22">
+        <v>25</v>
+      </c>
+      <c r="P22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="12" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="12">
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23">
         <v>19</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K23" s="12">
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+      <c r="K23">
         <v>4</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12" t="s">
+      <c r="M23" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="12">
-        <v>25</v>
-      </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
+      <c r="N23">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="12" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="12">
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24">
         <v>29</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K24" s="12">
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24">
         <v>4</v>
       </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12" t="s">
+      <c r="M24" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="12">
-        <v>0</v>
-      </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12" t="s">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16" t="s">
+      <c r="E25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K25" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" s="16"/>
+      <c r="J25" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="E27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
         <v>0.5</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K27" s="9">
-        <v>5</v>
-      </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" s="9"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>5</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K28" s="12">
-        <v>5</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="12" t="s">
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" t="s">
         <v>55</v>
       </c>
-      <c r="O28" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" s="12"/>
+      <c r="O28" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="12">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K29" s="12">
-        <v>5</v>
-      </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12" t="s">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>0.1</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="12">
-        <v>0</v>
-      </c>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
+      <c r="N29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="12" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K30" s="12">
-        <v>5</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="12" t="s">
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30">
+        <v>0.1</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" t="s">
         <v>55</v>
       </c>
-      <c r="O30" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" s="12"/>
+      <c r="O30" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="12">
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31">
         <v>-0.5</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31">
         <v>0.05</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K31" s="12">
-        <v>5</v>
-      </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" s="12"/>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31">
+        <v>0.1</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="12" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="12">
-        <v>0</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K32" s="12">
-        <v>5</v>
-      </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12" t="s">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
         <v>28</v>
       </c>
-      <c r="N32" s="12">
-        <v>0</v>
-      </c>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
+      <c r="N32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="12">
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33">
         <v>-0.5</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33">
         <v>0.05</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" t="s">
         <v>33</v>
       </c>
-      <c r="I33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K33" s="12">
-        <v>5</v>
-      </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" s="12"/>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="12">
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34">
         <v>19</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K34" s="12">
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34">
         <v>4</v>
       </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="12" t="s">
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" t="s">
         <v>55</v>
       </c>
-      <c r="O34" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" s="12"/>
+      <c r="O34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="12" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="19">
-        <v>25</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K35" s="12">
+      <c r="F35" s="1">
+        <v>25</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>0.1</v>
+      </c>
+      <c r="K35">
         <v>4</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12" t="s">
+      <c r="M35" t="s">
         <v>28</v>
       </c>
-      <c r="N35" s="12">
-        <v>25</v>
-      </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
+      <c r="N35">
+        <v>25</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="12" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="12">
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36">
         <v>35</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K36" s="12">
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="K36">
         <v>4</v>
       </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="12" t="s">
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" t="s">
         <v>55</v>
       </c>
-      <c r="O36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P36" s="12"/>
+      <c r="O36" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="16">
-        <v>0</v>
-      </c>
-      <c r="G37" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16" t="s">
+      <c r="E37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J37" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K37" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" s="16"/>
+      <c r="J37" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" s="12"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K39" s="9">
-        <v>5</v>
-      </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" s="9"/>
+      <c r="E39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K39" s="8">
+        <v>5</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P39" s="8"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="12" t="s">
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K40" s="12">
-        <v>5</v>
-      </c>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N40" s="12" t="s">
+      <c r="G40">
+        <v>0.1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40">
+        <v>0.1</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" t="s">
         <v>55</v>
       </c>
-      <c r="O40" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" s="12"/>
+      <c r="O40" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="12">
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41">
         <v>-0.5</v>
       </c>
-      <c r="G41" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K41" s="12">
+      <c r="G41">
+        <v>0.1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+      <c r="K41">
         <v>4</v>
       </c>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P41" s="12"/>
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="12">
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42">
         <v>29</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K42" s="12">
-        <v>5</v>
-      </c>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N42" s="12" t="s">
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>0.1</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="M42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" t="s">
         <v>55</v>
       </c>
-      <c r="O42" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" s="12"/>
+      <c r="O42" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="16">
-        <v>0</v>
-      </c>
-      <c r="G43" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16" t="s">
+      <c r="E43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J43" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K43" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N43" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" s="16"/>
+      <c r="J43" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K43" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" s="12"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" s="9">
-        <v>0</v>
-      </c>
-      <c r="K45" s="9">
-        <v>5</v>
-      </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P45" s="9"/>
+      <c r="E45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
+      <c r="K45" s="8">
+        <v>5</v>
+      </c>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P45" s="8"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="12" t="s">
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="12">
-        <v>0</v>
-      </c>
-      <c r="K46" s="12">
-        <v>5</v>
-      </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N46" s="12" t="s">
+      <c r="G46">
+        <v>0.1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
         <v>55</v>
       </c>
-      <c r="O46" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P46" s="12"/>
+      <c r="O46" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="17" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" s="12">
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <v>0.1</v>
+      </c>
+      <c r="G47">
+        <v>0.1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47">
         <v>0.01</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47">
         <v>4</v>
       </c>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P47" s="12"/>
+      <c r="M47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N47" t="s">
+        <v>37</v>
+      </c>
+      <c r="O47" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="12">
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48">
         <v>29</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="12">
-        <v>0</v>
-      </c>
-      <c r="K48" s="12">
-        <v>5</v>
-      </c>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N48" s="12" t="s">
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="M48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" t="s">
         <v>55</v>
       </c>
-      <c r="O48" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" s="12"/>
+      <c r="O48" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="12">
-        <v>0</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12" t="s">
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0.1</v>
+      </c>
+      <c r="I49" t="s">
         <v>40</v>
       </c>
-      <c r="J49" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K49" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N49" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P49" s="12"/>
+      <c r="J49">
+        <v>0.1</v>
+      </c>
+      <c r="K49">
+        <v>0.1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" t="s">
+        <v>37</v>
+      </c>
+      <c r="O49" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="20" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16" t="s">
+      <c r="F50" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="12">
         <v>0.01</v>
       </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N50" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="O50" s="16">
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="O50" s="12">
         <v>0.01</v>
       </c>
-      <c r="P50" s="16"/>
+      <c r="P50" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A45:A50"/>
@@ -9468,6 +9354,16 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9478,8 +9374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAB967E-925F-4782-9154-55DF58096ABD}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9496,30 +9392,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="21" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="21" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="21" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="9"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -9568,1329 +9464,1246 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
         <v>0.01</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K3" s="9">
-        <v>5</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4">
         <v>0.01</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
         <v>4</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="12"/>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5">
         <v>0.01</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="12"/>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6">
         <v>0.01</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="12" t="s">
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0.01</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="12">
-        <v>5</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="12"/>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8">
         <v>0.01</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K8" s="12">
-        <v>5</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="12" t="s">
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0.01</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="12">
-        <v>5</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="12"/>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
         <v>19</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K10" s="12">
-        <v>5</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="12"/>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
         <v>19</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K11" s="12">
-        <v>5</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="12"/>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
         <v>19</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K12" s="12">
-        <v>5</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="12" t="s">
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="12"/>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="E13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
         <v>1</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K13" s="16">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="12">
         <v>4</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="16"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="12"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
         <v>0.01</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K15" s="9">
-        <v>5</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>5</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="12">
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16">
         <v>4</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="12" t="s">
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="12" t="s">
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="19">
-        <v>0</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="12">
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12" t="s">
+      <c r="M17" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="12">
-        <v>0</v>
-      </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+      <c r="N17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18">
         <v>0.01</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="12">
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="K18">
         <v>4</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="12" t="s">
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" s="12"/>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="12">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
         <v>-0.5</v>
       </c>
-      <c r="G19" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K19" s="12">
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+      <c r="K19">
         <v>4</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="12" t="s">
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="12">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="K20">
         <v>4</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12" t="s">
+      <c r="M20" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="N20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="12">
-        <v>5</v>
-      </c>
-      <c r="G21" s="12">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
         <v>0.01</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K21" s="12">
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21">
         <v>4</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" s="12"/>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="12">
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
         <v>19</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="12">
-        <v>5</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="12" t="s">
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P22" s="12"/>
+      <c r="O22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="D23" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="12">
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23">
         <v>19</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K23" s="12">
-        <v>5</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="12" t="s">
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" t="s">
         <v>55</v>
       </c>
-      <c r="O23" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" s="12"/>
+      <c r="O23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="12">
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24">
         <v>19</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K24" s="12">
-        <v>5</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="12" t="s">
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="12"/>
+      <c r="O24" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16">
+      <c r="E25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
         <v>1</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K25" s="16">
+      <c r="H25" s="12"/>
+      <c r="I25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K25" s="12">
         <v>4</v>
       </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" s="16"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="E27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
         <v>0.01</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K27" s="9">
-        <v>5</v>
-      </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" s="9"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>5</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28">
         <v>0.5</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K28" s="12">
-        <v>5</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="12" t="s">
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" t="s">
         <v>55</v>
       </c>
-      <c r="O28" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" s="12" t="s">
+      <c r="O28" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29">
         <v>0.05</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K29" s="12">
-        <v>5</v>
-      </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="12" t="s">
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>0.1</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
         <v>55</v>
       </c>
-      <c r="O29" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" s="12"/>
+      <c r="O29" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30">
         <v>0.01</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K30" s="12">
-        <v>5</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="12" t="s">
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30">
+        <v>0.1</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" t="s">
         <v>55</v>
       </c>
-      <c r="O30" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" s="12"/>
+      <c r="O30" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31">
         <v>0.5</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K31" s="12">
-        <v>5</v>
-      </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" s="12" t="s">
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31">
+        <v>0.1</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="12">
-        <v>0</v>
-      </c>
-      <c r="G32" s="12">
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>0.01</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K32" s="12">
-        <v>5</v>
-      </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" s="12"/>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="D33" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="12">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12">
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>0.01</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K33" s="12">
-        <v>5</v>
-      </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" s="12"/>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="12">
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34">
         <v>19</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K34" s="12">
-        <v>5</v>
-      </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="12" t="s">
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" t="s">
         <v>55</v>
       </c>
-      <c r="O34" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" s="12"/>
+      <c r="O34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="12">
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35">
         <v>19</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K35" s="12">
-        <v>5</v>
-      </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="12" t="s">
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>0.1</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="M35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" t="s">
         <v>55</v>
       </c>
-      <c r="O35" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" s="12"/>
+      <c r="O35" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="12">
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36">
         <v>19</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="K36" s="12">
-        <v>5</v>
-      </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="12" t="s">
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" t="s">
         <v>55</v>
       </c>
-      <c r="O36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P36" s="12"/>
+      <c r="O36" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="16">
-        <v>0</v>
-      </c>
-      <c r="G37" s="16">
+      <c r="E37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
         <v>1</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K37" s="16">
+      <c r="H37" s="12"/>
+      <c r="I37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K37" s="12">
         <v>4</v>
       </c>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" s="16"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A27:A37"/>
     <mergeCell ref="A15:A25"/>
@@ -10899,13 +10712,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/markdown/model_priors.xlsx
+++ b/markdown/model_priors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjoy\Documents\SF_Rockfish_Removals\RockfishSportMort\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5430AF9-4FA8-4936-82D2-C2BFFE4EEE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21632C87-12C1-441C-8B60-2BCCE1D32C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="85">
   <si>
     <t>Prior</t>
   </si>
@@ -414,7 +414,7 @@
     <t>HARVEST PROPORTION PRIORS:</t>
   </si>
   <si>
-    <t>fixed at 0 for WKMA??</t>
+    <t>offset to differentiates slope as a proportion of non-pelagics for harvests and as a proportion of non-pelagic, non-yelloweye for releases.</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -549,13 +549,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -564,8 +561,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7596,13 +7599,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EB88A8-0633-428F-BFF5-598E355F3438}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -7616,23 +7621,23 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>72</v>
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -7683,7 +7688,7 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -7727,7 +7732,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -7836,7 +7841,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -7945,7 +7950,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -8053,7 +8058,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="11" t="s">
         <v>80</v>
       </c>
@@ -8095,7 +8100,7 @@
       <c r="P13" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -8140,7 +8145,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -8244,7 +8249,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -8347,7 +8352,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C22" s="17" t="s">
@@ -8452,7 +8457,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
@@ -8494,7 +8499,7 @@
       <c r="P25" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -8539,7 +8544,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="17" t="s">
@@ -8642,7 +8647,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -8751,7 +8756,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -8854,7 +8859,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="11" t="s">
         <v>80</v>
       </c>
@@ -8896,7 +8901,7 @@
       <c r="P37" s="12"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -9057,7 +9062,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="11" t="s">
         <v>80</v>
       </c>
@@ -9099,7 +9104,7 @@
       <c r="P43" s="12"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -9298,46 +9303,56 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
+    <row r="50" spans="1:16" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
       <c r="B50" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="C50" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12" t="s">
+      <c r="F50" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="10">
         <v>0.01</v>
       </c>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N50" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="O50" s="12">
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="O50" s="10">
         <v>0.01</v>
       </c>
       <c r="P50" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A45:A50"/>
@@ -9354,16 +9369,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9375,7 +9380,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9398,23 +9403,23 @@
       <c r="B1" s="15"/>
       <c r="C1" s="6"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>72</v>
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -9464,7 +9469,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -9509,7 +9514,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
@@ -9616,7 +9621,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
@@ -9726,7 +9731,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C10" t="s">
@@ -9832,7 +9837,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="11" t="s">
         <v>80</v>
       </c>
@@ -9874,7 +9879,7 @@
       <c r="P13" s="12"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -9919,7 +9924,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C16" t="s">
@@ -10024,7 +10029,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -10129,7 +10134,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C22" t="s">
@@ -10235,7 +10240,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
@@ -10277,7 +10282,7 @@
       <c r="P25" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -10322,7 +10327,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C28" t="s">
@@ -10395,9 +10400,6 @@
       <c r="O29" t="s">
         <v>54</v>
       </c>
-      <c r="P29" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -10435,7 +10437,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C31" t="s">
@@ -10508,9 +10510,6 @@
       <c r="O32" t="s">
         <v>54</v>
       </c>
-      <c r="P32" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
@@ -10548,7 +10547,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C34" t="s">
@@ -10629,7 +10628,7 @@
         <v>21</v>
       </c>
       <c r="F36">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G36" t="s">
         <v>36</v>
@@ -10654,7 +10653,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="11" t="s">
         <v>80</v>
       </c>
@@ -10697,13 +10696,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A27:A37"/>
     <mergeCell ref="A15:A25"/>
@@ -10712,6 +10704,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/markdown/model_priors.xlsx
+++ b/markdown/model_priors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjoy\Documents\SF_Rockfish_Removals\RockfishSportMort\markdown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjoy\Documents\Rockfish_SF_mortality\RockfishSportMort\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21632C87-12C1-441C-8B60-2BCCE1D32C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47319944-64E6-4CBF-B9A3-0DFED5800888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
+    <workbookView xWindow="3375" yWindow="1065" windowWidth="17580" windowHeight="13560" activeTab="2" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Coded" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="86">
   <si>
     <t>Prior</t>
   </si>
@@ -416,6 +416,9 @@
   <si>
     <t>offset to differentiates slope as a proportion of non-pelagics for harvests and as a proportion of non-pelagic, non-yelloweye for releases.</t>
   </si>
+  <si>
+    <t>fixed at 0 for CI and NGC; truncation on PWS areas</t>
+  </si>
 </sst>
 </file>
 
@@ -549,10 +552,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -561,14 +570,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7600,7 +7603,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7621,23 +7624,23 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -7688,7 +7691,7 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -7731,11 +7734,11 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D4" t="s">
@@ -7773,9 +7776,9 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" t="s">
         <v>14</v>
       </c>
@@ -7805,9 +7808,9 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" t="s">
         <v>15</v>
       </c>
@@ -7840,11 +7843,11 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D7" t="s">
@@ -7866,7 +7869,7 @@
         <v>0.1</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -7882,9 +7885,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
@@ -7914,9 +7917,9 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -7949,11 +7952,11 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
@@ -7988,9 +7991,9 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" t="s">
         <v>14</v>
       </c>
@@ -8023,9 +8026,9 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" t="s">
         <v>15</v>
       </c>
@@ -8058,7 +8061,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="11" t="s">
         <v>80</v>
       </c>
@@ -8100,7 +8103,7 @@
       <c r="P13" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -8144,11 +8147,11 @@
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D16" t="s">
@@ -8183,9 +8186,9 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" t="s">
         <v>14</v>
       </c>
@@ -8213,9 +8216,9 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" t="s">
         <v>15</v>
       </c>
@@ -8248,11 +8251,11 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D19" t="s">
@@ -8287,9 +8290,9 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" t="s">
         <v>14</v>
       </c>
@@ -8316,9 +8319,9 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" t="s">
         <v>15</v>
       </c>
@@ -8351,11 +8354,11 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D22" t="s">
@@ -8390,9 +8393,9 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" t="s">
         <v>14</v>
       </c>
@@ -8422,9 +8425,9 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" t="s">
         <v>15</v>
       </c>
@@ -8457,7 +8460,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
@@ -8499,7 +8502,7 @@
       <c r="P25" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -8543,11 +8546,11 @@
       <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D28" t="s">
@@ -8582,9 +8585,9 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" t="s">
         <v>14</v>
       </c>
@@ -8611,9 +8614,9 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
       <c r="D30" t="s">
         <v>15</v>
       </c>
@@ -8646,11 +8649,11 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
@@ -8688,9 +8691,9 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
       <c r="D32" t="s">
         <v>14</v>
       </c>
@@ -8717,9 +8720,9 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
       <c r="D33" t="s">
         <v>15</v>
       </c>
@@ -8755,11 +8758,11 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D34" t="s">
@@ -8794,9 +8797,9 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" t="s">
         <v>14</v>
       </c>
@@ -8824,9 +8827,9 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
       <c r="D36" t="s">
         <v>15</v>
       </c>
@@ -8859,7 +8862,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="11" t="s">
         <v>80</v>
       </c>
@@ -8901,7 +8904,7 @@
       <c r="P37" s="12"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -8945,7 +8948,7 @@
       <c r="P39" s="8"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="9" t="s">
         <v>77</v>
       </c>
@@ -8984,7 +8987,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="9" t="s">
         <v>78</v>
       </c>
@@ -9023,7 +9026,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="9" t="s">
         <v>79</v>
       </c>
@@ -9062,7 +9065,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="11" t="s">
         <v>80</v>
       </c>
@@ -9104,7 +9107,7 @@
       <c r="P43" s="12"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -9148,7 +9151,7 @@
       <c r="P45" s="8"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="9" t="s">
         <v>77</v>
       </c>
@@ -9187,7 +9190,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="9" t="s">
         <v>78</v>
       </c>
@@ -9226,7 +9229,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="9" t="s">
         <v>79</v>
       </c>
@@ -9265,7 +9268,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="9" t="s">
         <v>80</v>
       </c>
@@ -9304,11 +9307,11 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="16" t="s">
         <v>84</v>
       </c>
       <c r="D50" s="10" t="s">
@@ -9343,16 +9346,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A45:A50"/>
@@ -9369,6 +9362,16 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9379,8 +9382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAB967E-925F-4782-9154-55DF58096ABD}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9403,23 +9406,23 @@
       <c r="B1" s="15"/>
       <c r="C1" s="6"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -9469,7 +9472,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -9513,8 +9516,8 @@
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
@@ -9552,8 +9555,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="D5" t="s">
         <v>14</v>
       </c>
@@ -9586,8 +9589,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="D6" t="s">
         <v>15</v>
       </c>
@@ -9620,8 +9623,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
@@ -9659,8 +9662,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="D8" t="s">
         <v>14</v>
       </c>
@@ -9696,8 +9699,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -9730,8 +9733,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C10" t="s">
@@ -9769,8 +9772,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="D11" t="s">
         <v>14</v>
       </c>
@@ -9803,8 +9806,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="D12" t="s">
         <v>15</v>
       </c>
@@ -9837,7 +9840,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="11" t="s">
         <v>80</v>
       </c>
@@ -9879,7 +9882,7 @@
       <c r="P13" s="12"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -9923,8 +9926,8 @@
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C16" t="s">
@@ -9961,12 +9964,12 @@
         <v>54</v>
       </c>
       <c r="P16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="D17" t="s">
         <v>14</v>
       </c>
@@ -9994,8 +9997,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="D18" t="s">
         <v>15</v>
       </c>
@@ -10028,8 +10031,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -10066,12 +10069,12 @@
         <v>54</v>
       </c>
       <c r="P19" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="D20" t="s">
         <v>14</v>
       </c>
@@ -10099,8 +10102,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="D21" t="s">
         <v>15</v>
       </c>
@@ -10133,8 +10136,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C22" t="s">
@@ -10172,8 +10175,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="D23" t="s">
         <v>14</v>
       </c>
@@ -10206,8 +10209,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="D24" t="s">
         <v>15</v>
       </c>
@@ -10240,7 +10243,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
@@ -10282,7 +10285,7 @@
       <c r="P25" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -10326,8 +10329,8 @@
       <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C28" t="s">
@@ -10368,8 +10371,8 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="D29" t="s">
         <v>14</v>
       </c>
@@ -10402,8 +10405,8 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="D30" t="s">
         <v>15</v>
       </c>
@@ -10436,8 +10439,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C31" t="s">
@@ -10478,8 +10481,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
       <c r="D32" t="s">
         <v>14</v>
       </c>
@@ -10512,8 +10515,8 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="D33" t="s">
         <v>15</v>
       </c>
@@ -10546,8 +10549,8 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C34" t="s">
@@ -10585,8 +10588,8 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="D35" t="s">
         <v>14</v>
       </c>
@@ -10619,8 +10622,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="D36" t="s">
         <v>15</v>
       </c>
@@ -10628,7 +10631,7 @@
         <v>21</v>
       </c>
       <c r="F36">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>36</v>
@@ -10653,7 +10656,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="11" t="s">
         <v>80</v>
       </c>
@@ -10696,6 +10699,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A27:A37"/>
     <mergeCell ref="A15:A25"/>
@@ -10704,13 +10714,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/markdown/model_priors.xlsx
+++ b/markdown/model_priors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjoy\Documents\Rockfish_SF_mortality\RockfishSportMort\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47319944-64E6-4CBF-B9A3-0DFED5800888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A46D1A-ED32-4FCC-8B3E-5DF82E16DD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="1065" windowWidth="17580" windowHeight="13560" activeTab="2" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Coded" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="91">
   <si>
     <t>Prior</t>
   </si>
@@ -419,6 +419,45 @@
   <si>
     <t>fixed at 0 for CI and NGC; truncation on PWS areas</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hyperprior </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or SD</t>
+    </r>
+  </si>
+  <si>
+    <t>SD unif</t>
+  </si>
+  <si>
+    <t>(,50)</t>
+  </si>
+  <si>
+    <t>(,25)</t>
+  </si>
+  <si>
+    <t>fixed at 0 for NGC, PWSI, PWSO</t>
+  </si>
 </sst>
 </file>
 
@@ -515,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,13 +594,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -570,9 +606,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7602,8 +7642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EB88A8-0633-428F-BFF5-598E355F3438}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7624,23 +7664,23 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="17" t="s">
-        <v>72</v>
+      <c r="I1" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -7691,7 +7731,7 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -7714,7 +7754,7 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J3" s="8">
         <v>0.1</v>
@@ -7735,7 +7775,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -7748,13 +7788,16 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>0.1</v>
       </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J4">
         <v>0.1</v>
@@ -7789,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J5">
         <v>0.1</v>
@@ -7798,7 +7841,7 @@
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
         <v>37</v>
@@ -7824,7 +7867,7 @@
         <v>0.01</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J6">
         <v>0.1</v>
@@ -7844,7 +7887,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -7857,13 +7900,13 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>0.1</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -7898,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J8">
         <v>0.1</v>
@@ -7930,10 +7973,10 @@
         <v>27</v>
       </c>
       <c r="G9">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J9">
         <v>0.1</v>
@@ -7953,7 +7996,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -7972,7 +8015,7 @@
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -8007,7 +8050,7 @@
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -8042,7 +8085,7 @@
         <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J12">
         <v>0.1</v>
@@ -8061,7 +8104,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="11" t="s">
         <v>80</v>
       </c>
@@ -8103,7 +8146,7 @@
       <c r="P13" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -8126,7 +8169,7 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J15" s="8">
         <v>0.1</v>
@@ -8148,7 +8191,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -8167,7 +8210,7 @@
         <v>0.1</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J16">
         <v>0.1</v>
@@ -8192,15 +8235,15 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="23">
         <v>0</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J17">
         <v>0.1</v>
@@ -8229,10 +8272,10 @@
         <v>26</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J18">
         <v>0.1</v>
@@ -8252,7 +8295,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -8270,8 +8313,11 @@
       <c r="G19">
         <v>0.5</v>
       </c>
+      <c r="H19" t="s">
+        <v>89</v>
+      </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J19">
         <v>0.25</v>
@@ -8303,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J20">
         <v>0.25</v>
@@ -8335,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J21">
         <v>0.25</v>
@@ -8355,7 +8401,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -8374,7 +8420,7 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -8409,7 +8455,7 @@
         <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J23">
         <v>0.1</v>
@@ -8441,7 +8487,7 @@
         <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J24">
         <v>0.1</v>
@@ -8460,7 +8506,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
@@ -8502,7 +8548,7 @@
       <c r="P25" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -8525,7 +8571,7 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J27" s="8">
         <v>0.1</v>
@@ -8547,7 +8593,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="18" t="s">
@@ -8566,7 +8612,7 @@
         <v>0.1</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J28">
         <v>0.1</v>
@@ -8598,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J29">
         <v>0.1</v>
@@ -8630,7 +8676,7 @@
         <v>0.1</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J30">
         <v>0.1</v>
@@ -8650,7 +8696,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -8672,7 +8718,7 @@
         <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J31">
         <v>0.1</v>
@@ -8704,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J32">
         <v>0.1</v>
@@ -8739,7 +8785,7 @@
         <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J33">
         <v>0.1</v>
@@ -8759,7 +8805,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="18" t="s">
@@ -8778,7 +8824,7 @@
         <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J34">
         <v>0.1</v>
@@ -8803,15 +8849,17 @@
       <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="1">
-        <v>25</v>
-      </c>
-      <c r="G35" s="1"/>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J35">
         <v>0.1</v>
@@ -8843,7 +8891,7 @@
         <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J36">
         <v>0.1</v>
@@ -8862,7 +8910,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="11" t="s">
         <v>80</v>
       </c>
@@ -8904,7 +8952,7 @@
       <c r="P37" s="12"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -8927,7 +8975,7 @@
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J39" s="8">
         <v>0.1</v>
@@ -8968,7 +9016,7 @@
         <v>0.1</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J40">
         <v>0.1</v>
@@ -9007,7 +9055,7 @@
         <v>0.1</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J41">
         <v>0.1</v>
@@ -9046,7 +9094,7 @@
         <v>36</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J42">
         <v>0.1</v>
@@ -9065,7 +9113,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="11" t="s">
         <v>80</v>
       </c>
@@ -9107,7 +9155,7 @@
       <c r="P43" s="12"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -9130,7 +9178,7 @@
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J45" s="8">
         <v>0</v>
@@ -9171,7 +9219,7 @@
         <v>0.1</v>
       </c>
       <c r="I46" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -9210,7 +9258,7 @@
         <v>0.1</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J47">
         <v>0.01</v>
@@ -9249,7 +9297,7 @@
         <v>36</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -9307,7 +9355,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="13" t="s">
         <v>41</v>
       </c>
@@ -9346,6 +9394,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A45:A50"/>
@@ -9362,16 +9420,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9382,8 +9430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAB967E-925F-4782-9154-55DF58096ABD}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9406,23 +9454,23 @@
       <c r="B1" s="15"/>
       <c r="C1" s="6"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="21" t="s">
         <v>72</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -9472,7 +9520,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -9517,7 +9565,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
@@ -9624,7 +9672,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
@@ -9734,7 +9782,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C10" t="s">
@@ -9840,7 +9888,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="11" t="s">
         <v>80</v>
       </c>
@@ -9882,7 +9930,7 @@
       <c r="P13" s="12"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -9927,7 +9975,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C16" t="s">
@@ -9952,7 +10000,7 @@
         <v>0.1</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="s">
         <v>25</v>
@@ -9973,13 +10021,15 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1"/>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I17" t="s">
         <v>21</v>
       </c>
@@ -10032,7 +10082,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -10048,7 +10098,7 @@
         <v>-0.5</v>
       </c>
       <c r="G19">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -10078,13 +10128,15 @@
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
+      <c r="E20" t="s">
+        <v>22</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>0.01</v>
+      </c>
       <c r="I20" t="s">
         <v>21</v>
       </c>
@@ -10137,7 +10189,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C22" t="s">
@@ -10243,7 +10295,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
@@ -10285,7 +10337,7 @@
       <c r="P25" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -10330,7 +10382,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C28" t="s">
@@ -10367,7 +10419,7 @@
         <v>54</v>
       </c>
       <c r="P28" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -10440,7 +10492,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C31" t="s">
@@ -10477,7 +10529,7 @@
         <v>54</v>
       </c>
       <c r="P31" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -10550,7 +10602,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C34" t="s">
@@ -10656,7 +10708,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="11" t="s">
         <v>80</v>
       </c>
@@ -10699,13 +10751,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A27:A37"/>
     <mergeCell ref="A15:A25"/>
@@ -10714,6 +10759,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/markdown/model_priors.xlsx
+++ b/markdown/model_priors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjoy\Documents\Rockfish_SF_mortality\RockfishSportMort\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A46D1A-ED32-4FCC-8B3E-5DF82E16DD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C348FD-B36E-4535-BEAE-FED5718FF577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
+    <workbookView xWindow="-24630" yWindow="0" windowWidth="19860" windowHeight="13710" activeTab="3" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Coded" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="92">
   <si>
     <t>Prior</t>
   </si>
@@ -458,6 +458,9 @@
   <si>
     <t>fixed at 0 for NGC, PWSI, PWSO</t>
   </si>
+  <si>
+    <t xml:space="preserve">lower bound -1.5 for CI, SOKO2SAP and northeast </t>
+  </si>
 </sst>
 </file>
 
@@ -554,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -594,10 +597,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -606,13 +612,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7642,7 +7644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EB88A8-0633-428F-BFF5-598E355F3438}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
@@ -7664,23 +7666,23 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>86</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -7731,7 +7733,7 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -7775,7 +7777,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -7887,7 +7889,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -7996,7 +7998,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -8104,7 +8106,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="11" t="s">
         <v>80</v>
       </c>
@@ -8146,7 +8148,7 @@
       <c r="P13" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -8191,7 +8193,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -8235,10 +8237,10 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" s="1"/>
@@ -8295,7 +8297,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -8401,7 +8403,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -8506,7 +8508,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
@@ -8548,7 +8550,7 @@
       <c r="P25" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -8593,7 +8595,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="18" t="s">
@@ -8696,7 +8698,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -8805,7 +8807,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="18" t="s">
@@ -8910,7 +8912,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="11" t="s">
         <v>80</v>
       </c>
@@ -8952,7 +8954,7 @@
       <c r="P37" s="12"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -9113,7 +9115,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="11" t="s">
         <v>80</v>
       </c>
@@ -9155,7 +9157,7 @@
       <c r="P43" s="12"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -9355,7 +9357,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="13" t="s">
         <v>41</v>
       </c>
@@ -9394,16 +9396,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A45:A50"/>
@@ -9420,6 +9412,16 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9430,8 +9432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAB967E-925F-4782-9154-55DF58096ABD}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9454,23 +9456,23 @@
       <c r="B1" s="15"/>
       <c r="C1" s="6"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>72</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -9520,7 +9522,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -9565,7 +9567,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
@@ -9672,7 +9674,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
@@ -9782,7 +9784,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C10" t="s">
@@ -9888,7 +9890,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="11" t="s">
         <v>80</v>
       </c>
@@ -9930,7 +9932,7 @@
       <c r="P13" s="12"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -9975,7 +9977,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C16" t="s">
@@ -10082,7 +10084,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -10189,7 +10191,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C22" t="s">
@@ -10295,7 +10297,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
@@ -10334,10 +10336,12 @@
       <c r="O25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="12"/>
+      <c r="P25" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -10382,7 +10386,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C28" t="s">
@@ -10492,7 +10496,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C31" t="s">
@@ -10602,7 +10606,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C34" t="s">
@@ -10708,7 +10712,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="11" t="s">
         <v>80</v>
       </c>
@@ -10751,6 +10755,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A27:A37"/>
     <mergeCell ref="A15:A25"/>
@@ -10759,13 +10770,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/markdown/model_priors.xlsx
+++ b/markdown/model_priors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjoy\Documents\Rockfish_SF_mortality\RockfishSportMort\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C348FD-B36E-4535-BEAE-FED5718FF577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F87923-FECC-4823-A9C3-25E8E6286F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24630" yWindow="0" windowWidth="19860" windowHeight="13710" activeTab="3" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3ADC3E42-4C40-4518-B615-B83EB1AEA46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Coded" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="113">
   <si>
     <t>Prior</t>
   </si>
@@ -237,12 +237,6 @@
   </si>
   <si>
     <t>lognorm for WKMA</t>
-  </si>
-  <si>
-    <t>hyper prior</t>
-  </si>
-  <si>
-    <t>prior</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -460,6 +454,75 @@
   </si>
   <si>
     <t xml:space="preserve">lower bound -1.5 for CI, SOKO2SAP and northeast </t>
+  </si>
+  <si>
+    <t>Other Priors</t>
+  </si>
+  <si>
+    <t>by region</t>
+  </si>
+  <si>
+    <t>by area</t>
+  </si>
+  <si>
+    <t>SWHS harvest bias</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SWHS releas bias</t>
+  </si>
+  <si>
+    <t>Proportion Guided</t>
+  </si>
+  <si>
+    <t>Species Composition</t>
+  </si>
+  <si>
+    <t>Proportion Harvested (pH)</t>
+  </si>
+  <si>
+    <t>alpha (beta dist)</t>
+  </si>
+  <si>
+    <t>beta (beta dist)</t>
+  </si>
+  <si>
+    <t>alpha_lambda_H = mu_lambda</t>
+  </si>
+  <si>
+    <t>sigma_H</t>
+  </si>
+  <si>
+    <t>beta_H</t>
+  </si>
+  <si>
+    <t>dmnorm</t>
+  </si>
+  <si>
+    <t>zero[1:C] + beta0_H[a]</t>
+  </si>
+  <si>
+    <t>lambda_H[a] * Q[1:C, 1:C]</t>
+  </si>
+  <si>
+    <t>beta0_H</t>
+  </si>
+  <si>
+    <t>lamda_H</t>
+  </si>
+  <si>
+    <t>alpha_lam_H</t>
+  </si>
+  <si>
+    <t>beta_lamda_H</t>
+  </si>
+  <si>
+    <t>mu_lambda^2 / sigma_lambda^2</t>
+  </si>
+  <si>
+    <t>mu_lambda / sigma_lambda^2</t>
   </si>
 </sst>
 </file>
@@ -597,13 +660,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -611,6 +671,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4290,15 +4353,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F165C879-702B-4222-BF1E-E6990B25DB3D}">
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -4307,47 +4370,76 @@
     <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="K2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
         <v>24</v>
@@ -4356,3285 +4448,736 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>0.25</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>5</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>0.1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35">
+        <v>0.01</v>
+      </c>
+      <c r="I35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35">
+        <v>0.1</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="M35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>0.1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="K36">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11">
+      <c r="M36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37">
+        <v>0.1</v>
+      </c>
+      <c r="K37">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38">
+        <v>0.05</v>
+      </c>
+      <c r="I38" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38">
+        <v>0.1</v>
+      </c>
+      <c r="K38">
+        <v>15</v>
+      </c>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39">
+        <v>0.1</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40">
+        <v>0.1</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" t="s">
+        <v>55</v>
+      </c>
+      <c r="O41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0.1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16">
-        <v>0.1</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="O16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17">
-        <v>0.1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17">
-        <v>0.1</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="O17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>54</v>
-      </c>
-      <c r="R17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18">
-        <v>0.1</v>
-      </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="O18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19">
-        <v>0.01</v>
-      </c>
-      <c r="J19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19">
-        <v>0.1</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-      <c r="O19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20">
-        <v>0.1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20">
-        <v>0.1</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-      <c r="O20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>54</v>
-      </c>
-      <c r="R20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21">
-        <v>0.1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="O21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22">
-        <v>0.01</v>
-      </c>
-      <c r="J22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22">
-        <v>0.1</v>
-      </c>
-      <c r="M22">
-        <v>15</v>
-      </c>
-      <c r="O22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23">
-        <v>0.1</v>
-      </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="O23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24">
-        <v>0.1</v>
-      </c>
-      <c r="M24">
-        <v>4</v>
-      </c>
-      <c r="O24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25">
-        <v>20</v>
-      </c>
-      <c r="H25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25">
-        <v>0.1</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="O25" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0.1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="E42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L26">
-        <v>0.1</v>
-      </c>
-      <c r="M26">
-        <v>0.1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0.1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28">
-        <v>0.1</v>
-      </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
-      <c r="O28" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29">
-        <v>0.1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29">
-        <v>0.1</v>
-      </c>
-      <c r="M29">
-        <v>10</v>
-      </c>
-      <c r="O29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="R29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="J30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30">
-        <v>0.1</v>
-      </c>
-      <c r="M30">
-        <v>10</v>
-      </c>
-      <c r="O30" t="s">
-        <v>28</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31">
-        <v>0.1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31">
-        <v>0.1</v>
-      </c>
-      <c r="M31">
-        <v>10</v>
-      </c>
-      <c r="O31" t="s">
-        <v>28</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="R31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32">
-        <v>0.5</v>
-      </c>
-      <c r="J32" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32">
-        <v>0.25</v>
-      </c>
-      <c r="M32">
-        <v>5</v>
-      </c>
-      <c r="O32" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="R32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33">
-        <v>0.25</v>
-      </c>
-      <c r="M33">
-        <v>5</v>
-      </c>
-      <c r="O33" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34">
-        <v>-1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34">
-        <v>0.25</v>
-      </c>
-      <c r="M34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35">
-        <v>0.1</v>
-      </c>
-      <c r="M35">
-        <v>4</v>
-      </c>
-      <c r="O35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P35">
-        <v>25</v>
-      </c>
-      <c r="R35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36">
-        <v>0.1</v>
-      </c>
-      <c r="M36">
-        <v>4</v>
-      </c>
-      <c r="O36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P36">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37">
-        <v>29</v>
-      </c>
-      <c r="H37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37">
-        <v>0.1</v>
-      </c>
-      <c r="M37">
-        <v>4</v>
-      </c>
-      <c r="O37" t="s">
-        <v>28</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="R37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0.1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" t="s">
-        <v>40</v>
-      </c>
-      <c r="L38">
-        <v>0.1</v>
-      </c>
-      <c r="M38">
-        <v>0.1</v>
-      </c>
-      <c r="O38" t="s">
-        <v>22</v>
-      </c>
-      <c r="P38" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0.5</v>
-      </c>
-      <c r="J40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K40" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40">
-        <v>0.1</v>
-      </c>
-      <c r="M40">
-        <v>5</v>
-      </c>
-      <c r="O40" t="s">
-        <v>22</v>
-      </c>
-      <c r="P40" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41">
-        <v>0.1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41">
-        <v>0.1</v>
-      </c>
-      <c r="M41">
-        <v>5</v>
-      </c>
-      <c r="O41" t="s">
-        <v>25</v>
-      </c>
-      <c r="P41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42">
-        <v>0.1</v>
-      </c>
-      <c r="M42">
-        <v>5</v>
-      </c>
-      <c r="O42" t="s">
-        <v>28</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43">
-        <v>0.1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>38</v>
-      </c>
-      <c r="K43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43">
-        <v>0.1</v>
-      </c>
-      <c r="M43">
-        <v>5</v>
-      </c>
-      <c r="O43" t="s">
-        <v>25</v>
-      </c>
-      <c r="P43" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44">
-        <v>-0.5</v>
-      </c>
-      <c r="H44">
-        <v>0.05</v>
-      </c>
-      <c r="I44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" t="s">
-        <v>38</v>
-      </c>
-      <c r="K44" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44">
-        <v>0.1</v>
-      </c>
-      <c r="M44">
-        <v>5</v>
-      </c>
-      <c r="O44" t="s">
-        <v>22</v>
-      </c>
-      <c r="P44" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s">
-        <v>38</v>
-      </c>
-      <c r="K45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45">
-        <v>0.1</v>
-      </c>
-      <c r="M45">
-        <v>5</v>
-      </c>
-      <c r="O45" t="s">
-        <v>28</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46">
-        <v>-0.5</v>
-      </c>
-      <c r="H46">
-        <v>0.05</v>
-      </c>
-      <c r="I46" t="s">
-        <v>33</v>
-      </c>
-      <c r="J46" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46">
-        <v>0.1</v>
-      </c>
-      <c r="M46">
-        <v>5</v>
-      </c>
-      <c r="O46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P46" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47">
-        <v>19</v>
-      </c>
-      <c r="H47" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" t="s">
-        <v>38</v>
-      </c>
-      <c r="K47" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47">
-        <v>0.1</v>
-      </c>
-      <c r="M47">
-        <v>4</v>
-      </c>
-      <c r="O47" t="s">
-        <v>25</v>
-      </c>
-      <c r="P47" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="1">
-        <v>25</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="J48" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48">
-        <v>0.1</v>
-      </c>
-      <c r="M48">
-        <v>4</v>
-      </c>
-      <c r="O48" t="s">
-        <v>28</v>
-      </c>
-      <c r="P48">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49">
-        <v>35</v>
-      </c>
-      <c r="H49" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" t="s">
-        <v>38</v>
-      </c>
-      <c r="K49" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49">
-        <v>0.1</v>
-      </c>
-      <c r="M49">
-        <v>4</v>
-      </c>
-      <c r="O49" t="s">
-        <v>25</v>
-      </c>
-      <c r="P49" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0.1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>39</v>
-      </c>
-      <c r="K50" t="s">
-        <v>40</v>
-      </c>
-      <c r="L50">
-        <v>0.1</v>
-      </c>
-      <c r="M50">
-        <v>0.1</v>
-      </c>
-      <c r="O50" t="s">
-        <v>22</v>
-      </c>
-      <c r="P50" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0.1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>38</v>
-      </c>
-      <c r="K53" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53">
-        <v>0.1</v>
-      </c>
-      <c r="M53">
-        <v>5</v>
-      </c>
-      <c r="O53" t="s">
-        <v>22</v>
-      </c>
-      <c r="P53" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54">
-        <v>0.1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>38</v>
-      </c>
-      <c r="K54" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54">
-        <v>0.1</v>
-      </c>
-      <c r="M54">
-        <v>5</v>
-      </c>
-      <c r="O54" t="s">
-        <v>25</v>
-      </c>
-      <c r="P54" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55">
-        <v>-0.5</v>
-      </c>
-      <c r="H55">
-        <v>0.1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>38</v>
-      </c>
-      <c r="K55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55">
-        <v>0.1</v>
-      </c>
-      <c r="M55">
-        <v>4</v>
-      </c>
-      <c r="O55" t="s">
-        <v>22</v>
-      </c>
-      <c r="P55" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56">
-        <v>29</v>
-      </c>
-      <c r="H56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56">
-        <v>0.1</v>
-      </c>
-      <c r="M56">
-        <v>5</v>
-      </c>
-      <c r="O56" t="s">
-        <v>25</v>
-      </c>
-      <c r="P56" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0.1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>39</v>
-      </c>
-      <c r="K57" t="s">
-        <v>40</v>
-      </c>
-      <c r="L57">
-        <v>0.1</v>
-      </c>
-      <c r="M57">
-        <v>0.1</v>
-      </c>
-      <c r="O57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P57" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0.1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>5</v>
-      </c>
-      <c r="O60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P60" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61">
-        <v>0.1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>38</v>
-      </c>
-      <c r="K61" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>5</v>
-      </c>
-      <c r="O61" t="s">
-        <v>25</v>
-      </c>
-      <c r="P61" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" t="s">
-        <v>37</v>
-      </c>
-      <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62">
-        <v>0.1</v>
-      </c>
-      <c r="H62">
-        <v>0.1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>38</v>
-      </c>
-      <c r="K62" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62">
-        <v>0.01</v>
-      </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="O62" t="s">
-        <v>22</v>
-      </c>
-      <c r="P62" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63">
-        <v>29</v>
-      </c>
-      <c r="H63" t="s">
-        <v>36</v>
-      </c>
-      <c r="J63" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>5</v>
-      </c>
-      <c r="O63" t="s">
-        <v>25</v>
-      </c>
-      <c r="P63" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0.1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>39</v>
-      </c>
-      <c r="K64" t="s">
-        <v>40</v>
-      </c>
-      <c r="L64">
-        <v>0.1</v>
-      </c>
-      <c r="M64">
-        <v>0.1</v>
-      </c>
-      <c r="O64" t="s">
-        <v>22</v>
-      </c>
-      <c r="P64" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65">
-        <v>0.1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>39</v>
-      </c>
-      <c r="K65" t="s">
-        <v>28</v>
-      </c>
-      <c r="L65">
-        <v>0.01</v>
-      </c>
-      <c r="O65" t="s">
-        <v>22</v>
-      </c>
-      <c r="P65">
-        <v>0.1</v>
-      </c>
-      <c r="Q65">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" t="s">
-        <v>37</v>
-      </c>
-      <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0.01</v>
-      </c>
-      <c r="J70" t="s">
-        <v>38</v>
-      </c>
-      <c r="K70" t="s">
-        <v>21</v>
-      </c>
-      <c r="L70">
-        <v>0.1</v>
-      </c>
-      <c r="M70">
-        <v>5</v>
-      </c>
-      <c r="O70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P70" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" t="s">
-        <v>43</v>
-      </c>
-      <c r="D71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" t="s">
-        <v>37</v>
-      </c>
-      <c r="F71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71">
-        <v>0.01</v>
-      </c>
-      <c r="J71" t="s">
-        <v>38</v>
-      </c>
-      <c r="K71" t="s">
-        <v>21</v>
-      </c>
-      <c r="L71">
-        <v>0.1</v>
-      </c>
-      <c r="M71">
-        <v>4</v>
-      </c>
-      <c r="O71" t="s">
-        <v>25</v>
-      </c>
-      <c r="P71" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" t="s">
-        <v>62</v>
-      </c>
-      <c r="H72">
-        <v>0.01</v>
-      </c>
-      <c r="J72" t="s">
-        <v>38</v>
-      </c>
-      <c r="K72" t="s">
-        <v>21</v>
-      </c>
-      <c r="L72">
-        <v>0.1</v>
-      </c>
-      <c r="M72">
-        <v>4</v>
-      </c>
-      <c r="O72" t="s">
-        <v>25</v>
-      </c>
-      <c r="P72" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" t="s">
-        <v>37</v>
-      </c>
-      <c r="F73" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" t="s">
-        <v>62</v>
-      </c>
-      <c r="H73">
-        <v>0.01</v>
-      </c>
-      <c r="J73" t="s">
-        <v>38</v>
-      </c>
-      <c r="K73" t="s">
-        <v>21</v>
-      </c>
-      <c r="L73">
-        <v>0.1</v>
-      </c>
-      <c r="M73">
-        <v>4</v>
-      </c>
-      <c r="O73" t="s">
-        <v>25</v>
-      </c>
-      <c r="P73" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" t="s">
-        <v>37</v>
-      </c>
-      <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0.01</v>
-      </c>
-      <c r="J74" t="s">
-        <v>38</v>
-      </c>
-      <c r="K74" t="s">
-        <v>21</v>
-      </c>
-      <c r="L74">
-        <v>0.1</v>
-      </c>
-      <c r="M74">
-        <v>5</v>
-      </c>
-      <c r="O74" t="s">
-        <v>22</v>
-      </c>
-      <c r="P74" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s">
-        <v>37</v>
-      </c>
-      <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>62</v>
-      </c>
-      <c r="H75">
-        <v>0.01</v>
-      </c>
-      <c r="J75" t="s">
-        <v>38</v>
-      </c>
-      <c r="K75" t="s">
-        <v>21</v>
-      </c>
-      <c r="L75">
-        <v>0.1</v>
-      </c>
-      <c r="M75">
-        <v>5</v>
-      </c>
-      <c r="O75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P75" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>54</v>
-      </c>
-      <c r="R75" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" t="s">
-        <v>37</v>
-      </c>
-      <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0.01</v>
-      </c>
-      <c r="J76" t="s">
-        <v>38</v>
-      </c>
-      <c r="K76" t="s">
-        <v>21</v>
-      </c>
-      <c r="L76">
-        <v>0.1</v>
-      </c>
-      <c r="M76">
-        <v>5</v>
-      </c>
-      <c r="O76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P76" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" t="s">
-        <v>45</v>
-      </c>
-      <c r="D77" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" t="s">
-        <v>37</v>
-      </c>
-      <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77">
-        <v>19</v>
-      </c>
-      <c r="H77" t="s">
-        <v>36</v>
-      </c>
-      <c r="J77" t="s">
-        <v>38</v>
-      </c>
-      <c r="K77" t="s">
-        <v>21</v>
-      </c>
-      <c r="L77">
-        <v>0.1</v>
-      </c>
-      <c r="M77">
-        <v>5</v>
-      </c>
-      <c r="O77" t="s">
-        <v>25</v>
-      </c>
-      <c r="P77" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78">
-        <v>19</v>
-      </c>
-      <c r="H78" t="s">
-        <v>36</v>
-      </c>
-      <c r="J78" t="s">
-        <v>38</v>
-      </c>
-      <c r="K78" t="s">
-        <v>21</v>
-      </c>
-      <c r="L78">
-        <v>0.1</v>
-      </c>
-      <c r="M78">
-        <v>5</v>
-      </c>
-      <c r="O78" t="s">
-        <v>25</v>
-      </c>
-      <c r="P78" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" t="s">
-        <v>37</v>
-      </c>
-      <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79">
-        <v>19</v>
-      </c>
-      <c r="H79" t="s">
-        <v>36</v>
-      </c>
-      <c r="J79" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" t="s">
-        <v>21</v>
-      </c>
-      <c r="L79">
-        <v>0.1</v>
-      </c>
-      <c r="M79">
-        <v>5</v>
-      </c>
-      <c r="O79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P79" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="J80" t="s">
-        <v>38</v>
-      </c>
-      <c r="K80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L80">
-        <v>0.1</v>
-      </c>
-      <c r="M80">
-        <v>4</v>
-      </c>
-      <c r="O80" t="s">
-        <v>22</v>
-      </c>
-      <c r="P80" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" t="s">
-        <v>37</v>
-      </c>
-      <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0.01</v>
-      </c>
-      <c r="J82" t="s">
-        <v>38</v>
-      </c>
-      <c r="K82" t="s">
-        <v>21</v>
-      </c>
-      <c r="L82">
-        <v>0.1</v>
-      </c>
-      <c r="M82">
-        <v>5</v>
-      </c>
-      <c r="O82" t="s">
-        <v>22</v>
-      </c>
-      <c r="P82" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" t="s">
-        <v>37</v>
-      </c>
-      <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="s">
-        <v>62</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="J83" t="s">
-        <v>38</v>
-      </c>
-      <c r="K83" t="s">
-        <v>21</v>
-      </c>
-      <c r="L83">
-        <v>0.1</v>
-      </c>
-      <c r="M83">
-        <v>4</v>
-      </c>
-      <c r="O83" t="s">
-        <v>25</v>
-      </c>
-      <c r="P83" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>54</v>
-      </c>
-      <c r="R83" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" t="s">
-        <v>37</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
-      <c r="H84" s="1"/>
-      <c r="J84" t="s">
-        <v>38</v>
-      </c>
-      <c r="K84" t="s">
-        <v>21</v>
-      </c>
-      <c r="L84">
-        <v>0.1</v>
-      </c>
-      <c r="M84">
-        <v>4</v>
-      </c>
-      <c r="O84" t="s">
-        <v>28</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" t="s">
-        <v>37</v>
-      </c>
-      <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s">
-        <v>62</v>
-      </c>
-      <c r="H85">
-        <v>0.01</v>
-      </c>
-      <c r="J85" t="s">
-        <v>38</v>
-      </c>
-      <c r="K85" t="s">
-        <v>21</v>
-      </c>
-      <c r="L85">
-        <v>0.1</v>
-      </c>
-      <c r="M85">
-        <v>4</v>
-      </c>
-      <c r="O85" t="s">
-        <v>25</v>
-      </c>
-      <c r="P85" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" t="s">
-        <v>37</v>
-      </c>
-      <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86">
-        <v>-0.5</v>
-      </c>
-      <c r="H86">
-        <v>0.1</v>
-      </c>
-      <c r="J86" t="s">
-        <v>38</v>
-      </c>
-      <c r="K86" t="s">
-        <v>21</v>
-      </c>
-      <c r="L86">
-        <v>0.1</v>
-      </c>
-      <c r="M86">
-        <v>4</v>
-      </c>
-      <c r="O86" t="s">
-        <v>22</v>
-      </c>
-      <c r="P86" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>54</v>
-      </c>
-      <c r="R86" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" t="s">
-        <v>37</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
-      <c r="H87" s="1"/>
-      <c r="J87" t="s">
-        <v>38</v>
-      </c>
-      <c r="K87" t="s">
-        <v>21</v>
-      </c>
-      <c r="L87">
-        <v>0.1</v>
-      </c>
-      <c r="M87">
-        <v>4</v>
-      </c>
-      <c r="O87" t="s">
-        <v>28</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" t="s">
-        <v>37</v>
-      </c>
-      <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88">
-        <v>5</v>
-      </c>
-      <c r="H88">
-        <v>0.01</v>
-      </c>
-      <c r="J88" t="s">
-        <v>38</v>
-      </c>
-      <c r="K88" t="s">
-        <v>21</v>
-      </c>
-      <c r="L88">
-        <v>0.1</v>
-      </c>
-      <c r="M88">
-        <v>4</v>
-      </c>
-      <c r="O88" t="s">
-        <v>22</v>
-      </c>
-      <c r="P88" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" t="s">
-        <v>45</v>
-      </c>
-      <c r="D89" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" t="s">
-        <v>37</v>
-      </c>
-      <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89">
-        <v>19</v>
-      </c>
-      <c r="H89" t="s">
-        <v>36</v>
-      </c>
-      <c r="J89" t="s">
-        <v>38</v>
-      </c>
-      <c r="K89" t="s">
-        <v>21</v>
-      </c>
-      <c r="L89">
-        <v>0.1</v>
-      </c>
-      <c r="M89">
-        <v>5</v>
-      </c>
-      <c r="O89" t="s">
-        <v>25</v>
-      </c>
-      <c r="P89" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" t="s">
-        <v>37</v>
-      </c>
-      <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90">
-        <v>19</v>
-      </c>
-      <c r="H90" t="s">
-        <v>36</v>
-      </c>
-      <c r="J90" t="s">
-        <v>38</v>
-      </c>
-      <c r="K90" t="s">
-        <v>21</v>
-      </c>
-      <c r="L90">
-        <v>0.1</v>
-      </c>
-      <c r="M90">
-        <v>5</v>
-      </c>
-      <c r="O90" t="s">
-        <v>25</v>
-      </c>
-      <c r="P90" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91">
-        <v>19</v>
-      </c>
-      <c r="H91" t="s">
-        <v>36</v>
-      </c>
-      <c r="J91" t="s">
-        <v>38</v>
-      </c>
-      <c r="K91" t="s">
-        <v>21</v>
-      </c>
-      <c r="L91">
-        <v>0.1</v>
-      </c>
-      <c r="M91">
-        <v>5</v>
-      </c>
-      <c r="O91" t="s">
-        <v>25</v>
-      </c>
-      <c r="P91" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>52</v>
-      </c>
-      <c r="C92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D92" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" t="s">
-        <v>37</v>
-      </c>
-      <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="J92" t="s">
-        <v>38</v>
-      </c>
-      <c r="K92" t="s">
-        <v>21</v>
-      </c>
-      <c r="L92">
-        <v>0.1</v>
-      </c>
-      <c r="M92">
-        <v>4</v>
-      </c>
-      <c r="O92" t="s">
-        <v>22</v>
-      </c>
-      <c r="P92" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>61</v>
-      </c>
-      <c r="B94" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" t="s">
-        <v>42</v>
-      </c>
-      <c r="D94" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0.01</v>
-      </c>
-      <c r="J94" t="s">
-        <v>38</v>
-      </c>
-      <c r="K94" t="s">
-        <v>21</v>
-      </c>
-      <c r="L94">
-        <v>0.1</v>
-      </c>
-      <c r="M94">
-        <v>5</v>
-      </c>
-      <c r="O94" t="s">
-        <v>22</v>
-      </c>
-      <c r="P94" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C95" t="s">
-        <v>43</v>
-      </c>
-      <c r="D95" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" t="s">
-        <v>37</v>
-      </c>
-      <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="s">
-        <v>62</v>
-      </c>
-      <c r="H95">
-        <v>0.5</v>
-      </c>
-      <c r="J95" t="s">
-        <v>38</v>
-      </c>
-      <c r="K95" t="s">
-        <v>21</v>
-      </c>
-      <c r="L95">
-        <v>0.1</v>
-      </c>
-      <c r="M95">
-        <v>5</v>
-      </c>
-      <c r="O95" t="s">
-        <v>25</v>
-      </c>
-      <c r="P95" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>54</v>
-      </c>
-      <c r="R95" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" t="s">
-        <v>37</v>
-      </c>
-      <c r="F96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" t="s">
-        <v>30</v>
-      </c>
-      <c r="H96">
-        <v>0.05</v>
-      </c>
-      <c r="J96" t="s">
-        <v>38</v>
-      </c>
-      <c r="K96" t="s">
-        <v>21</v>
-      </c>
-      <c r="L96">
-        <v>0.1</v>
-      </c>
-      <c r="M96">
-        <v>5</v>
-      </c>
-      <c r="O96" t="s">
-        <v>25</v>
-      </c>
-      <c r="P96" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" t="s">
-        <v>37</v>
-      </c>
-      <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" t="s">
-        <v>62</v>
-      </c>
-      <c r="H97">
-        <v>0.01</v>
-      </c>
-      <c r="J97" t="s">
-        <v>38</v>
-      </c>
-      <c r="K97" t="s">
-        <v>21</v>
-      </c>
-      <c r="L97">
-        <v>0.1</v>
-      </c>
-      <c r="M97">
-        <v>5</v>
-      </c>
-      <c r="O97" t="s">
-        <v>25</v>
-      </c>
-      <c r="P97" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98" t="s">
-        <v>44</v>
-      </c>
-      <c r="D98" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" t="s">
-        <v>37</v>
-      </c>
-      <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" t="s">
-        <v>62</v>
-      </c>
-      <c r="H98">
-        <v>0.5</v>
-      </c>
-      <c r="J98" t="s">
-        <v>38</v>
-      </c>
-      <c r="K98" t="s">
-        <v>21</v>
-      </c>
-      <c r="L98">
-        <v>0.1</v>
-      </c>
-      <c r="M98">
-        <v>5</v>
-      </c>
-      <c r="O98" t="s">
-        <v>22</v>
-      </c>
-      <c r="P98" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>54</v>
-      </c>
-      <c r="R98" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" t="s">
-        <v>37</v>
-      </c>
-      <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0.01</v>
-      </c>
-      <c r="J99" t="s">
-        <v>38</v>
-      </c>
-      <c r="K99" t="s">
-        <v>21</v>
-      </c>
-      <c r="L99">
-        <v>0.1</v>
-      </c>
-      <c r="M99">
-        <v>5</v>
-      </c>
-      <c r="O99" t="s">
-        <v>22</v>
-      </c>
-      <c r="P99" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100" t="s">
-        <v>37</v>
-      </c>
-      <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0.01</v>
-      </c>
-      <c r="J100" t="s">
-        <v>38</v>
-      </c>
-      <c r="K100" t="s">
-        <v>21</v>
-      </c>
-      <c r="L100">
-        <v>0.1</v>
-      </c>
-      <c r="M100">
-        <v>5</v>
-      </c>
-      <c r="O100" t="s">
-        <v>22</v>
-      </c>
-      <c r="P100" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>51</v>
-      </c>
-      <c r="C101" t="s">
-        <v>45</v>
-      </c>
-      <c r="D101" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" t="s">
-        <v>37</v>
-      </c>
-      <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101">
-        <v>19</v>
-      </c>
-      <c r="H101" t="s">
-        <v>36</v>
-      </c>
-      <c r="J101" t="s">
-        <v>38</v>
-      </c>
-      <c r="K101" t="s">
-        <v>21</v>
-      </c>
-      <c r="L101">
-        <v>0.1</v>
-      </c>
-      <c r="M101">
-        <v>5</v>
-      </c>
-      <c r="O101" t="s">
-        <v>25</v>
-      </c>
-      <c r="P101" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
-        <v>37</v>
-      </c>
-      <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102">
-        <v>19</v>
-      </c>
-      <c r="H102" t="s">
-        <v>36</v>
-      </c>
-      <c r="J102" t="s">
-        <v>38</v>
-      </c>
-      <c r="K102" t="s">
-        <v>21</v>
-      </c>
-      <c r="L102">
-        <v>0.1</v>
-      </c>
-      <c r="M102">
-        <v>5</v>
-      </c>
-      <c r="O102" t="s">
-        <v>25</v>
-      </c>
-      <c r="P102" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103">
-        <v>19</v>
-      </c>
-      <c r="H103" t="s">
-        <v>36</v>
-      </c>
-      <c r="J103" t="s">
-        <v>38</v>
-      </c>
-      <c r="K103" t="s">
-        <v>21</v>
-      </c>
-      <c r="L103">
-        <v>0.1</v>
-      </c>
-      <c r="M103">
-        <v>5</v>
-      </c>
-      <c r="O103" t="s">
-        <v>25</v>
-      </c>
-      <c r="P103" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>52</v>
-      </c>
-      <c r="C104" t="s">
-        <v>46</v>
-      </c>
-      <c r="D104" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" t="s">
-        <v>37</v>
-      </c>
-      <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="J104" t="s">
-        <v>38</v>
-      </c>
-      <c r="K104" t="s">
-        <v>21</v>
-      </c>
-      <c r="L104">
-        <v>0.1</v>
-      </c>
-      <c r="M104">
-        <v>4</v>
-      </c>
-      <c r="O104" t="s">
-        <v>22</v>
-      </c>
-      <c r="P104" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>54</v>
-      </c>
+      <c r="J42" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P42" s="12"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -7645,7 +5188,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="P13" sqref="A3:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7661,45 +5204,45 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="17" t="s">
-        <v>71</v>
+      <c r="E1" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="17" t="s">
-        <v>86</v>
+      <c r="I1" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="M1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -7709,7 +5252,7 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>23</v>
@@ -7719,7 +5262,7 @@
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -7728,16 +5271,16 @@
         <v>24</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>42</v>
@@ -7756,7 +5299,7 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J3" s="8">
         <v>0.1</v>
@@ -7777,8 +5320,8 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
-        <v>77</v>
+      <c r="B4" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>43</v>
@@ -7796,10 +5339,10 @@
         <v>0.1</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <v>0.1</v>
@@ -7834,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <v>0.1</v>
@@ -7869,7 +5412,7 @@
         <v>0.01</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <v>0.1</v>
@@ -7889,8 +5432,8 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
-        <v>78</v>
+      <c r="B7" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>44</v>
@@ -7908,7 +5451,7 @@
         <v>0.1</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -7943,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J8">
         <v>0.1</v>
@@ -7978,7 +5521,7 @@
         <v>0.05</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J9">
         <v>0.1</v>
@@ -7998,8 +5541,8 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
-        <v>79</v>
+      <c r="B10" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>45</v>
@@ -8017,7 +5560,7 @@
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -8052,7 +5595,7 @@
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -8087,7 +5630,7 @@
         <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J12">
         <v>0.1</v>
@@ -8106,9 +5649,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>46</v>
@@ -8148,11 +5691,11 @@
       <c r="P13" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>42</v>
@@ -8171,7 +5714,7 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J15" s="8">
         <v>0.1</v>
@@ -8193,8 +5736,8 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
-        <v>77</v>
+      <c r="B16" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>43</v>
@@ -8212,7 +5755,7 @@
         <v>0.1</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J16">
         <v>0.1</v>
@@ -8245,7 +5788,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J17">
         <v>0.1</v>
@@ -8277,7 +5820,7 @@
         <v>0.5</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J18">
         <v>0.1</v>
@@ -8297,8 +5840,8 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="19" t="s">
-        <v>78</v>
+      <c r="B19" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>44</v>
@@ -8316,10 +5859,10 @@
         <v>0.5</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J19">
         <v>0.25</v>
@@ -8351,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J20">
         <v>0.25</v>
@@ -8383,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J21">
         <v>0.25</v>
@@ -8398,13 +5941,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
-        <v>79</v>
+      <c r="B22" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>45</v>
@@ -8422,7 +5965,7 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -8457,7 +6000,7 @@
         <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J23">
         <v>0.1</v>
@@ -8489,7 +6032,7 @@
         <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J24">
         <v>0.1</v>
@@ -8508,9 +6051,9 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>46</v>
@@ -8550,11 +6093,11 @@
       <c r="P25" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>42</v>
@@ -8573,7 +6116,7 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J27" s="8">
         <v>0.1</v>
@@ -8595,8 +6138,8 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
-      <c r="B28" s="19" t="s">
-        <v>77</v>
+      <c r="B28" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>43</v>
@@ -8614,7 +6157,7 @@
         <v>0.1</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J28">
         <v>0.1</v>
@@ -8646,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J29">
         <v>0.1</v>
@@ -8678,7 +6221,7 @@
         <v>0.1</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J30">
         <v>0.1</v>
@@ -8698,8 +6241,8 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="19" t="s">
-        <v>78</v>
+      <c r="B31" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>44</v>
@@ -8720,7 +6263,7 @@
         <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J31">
         <v>0.1</v>
@@ -8752,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J32">
         <v>0.1</v>
@@ -8787,7 +6330,7 @@
         <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J33">
         <v>0.1</v>
@@ -8807,8 +6350,8 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="19" t="s">
-        <v>79</v>
+      <c r="B34" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>45</v>
@@ -8826,7 +6369,7 @@
         <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J34">
         <v>0.1</v>
@@ -8861,7 +6404,7 @@
         <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J35">
         <v>0.1</v>
@@ -8893,7 +6436,7 @@
         <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J36">
         <v>0.1</v>
@@ -8912,9 +6455,9 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>46</v>
@@ -8954,11 +6497,11 @@
       <c r="P37" s="12"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>42</v>
@@ -8977,7 +6520,7 @@
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J39" s="8">
         <v>0.1</v>
@@ -9000,7 +6543,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>43</v>
@@ -9018,7 +6561,7 @@
         <v>0.1</v>
       </c>
       <c r="I40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J40">
         <v>0.1</v>
@@ -9039,7 +6582,7 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>44</v>
@@ -9057,7 +6600,7 @@
         <v>0.1</v>
       </c>
       <c r="I41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J41">
         <v>0.1</v>
@@ -9078,7 +6621,7 @@
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>45</v>
@@ -9096,7 +6639,7 @@
         <v>36</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J42">
         <v>0.1</v>
@@ -9115,9 +6658,9 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>46</v>
@@ -9157,11 +6700,11 @@
       <c r="P43" s="12"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>42</v>
@@ -9180,7 +6723,7 @@
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J45" s="8">
         <v>0</v>
@@ -9203,7 +6746,7 @@
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>43</v>
@@ -9221,7 +6764,7 @@
         <v>0.1</v>
       </c>
       <c r="I46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -9242,7 +6785,7 @@
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>44</v>
@@ -9260,7 +6803,7 @@
         <v>0.1</v>
       </c>
       <c r="I47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J47">
         <v>0.01</v>
@@ -9281,7 +6824,7 @@
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>45</v>
@@ -9299,7 +6842,7 @@
         <v>36</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -9320,7 +6863,7 @@
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>46</v>
@@ -9357,12 +6900,12 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>15</v>
@@ -9396,6 +6939,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A45:A50"/>
@@ -9412,16 +6965,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9432,7 +6975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAB967E-925F-4782-9154-55DF58096ABD}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
@@ -9451,45 +6994,45 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="6"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="17" t="s">
-        <v>71</v>
+      <c r="E1" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="17" t="s">
-        <v>72</v>
+      <c r="I1" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="M1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -9499,7 +7042,7 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>23</v>
@@ -9509,7 +7052,7 @@
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -9518,15 +7061,15 @@
         <v>24</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>42</v>
@@ -9567,8 +7110,8 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
-        <v>77</v>
+      <c r="B4" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -9674,8 +7217,8 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
-        <v>78</v>
+      <c r="B7" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -9784,8 +7327,8 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
-        <v>79</v>
+      <c r="B10" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -9890,9 +7433,9 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>46</v>
@@ -9932,11 +7475,11 @@
       <c r="P13" s="12"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>42</v>
@@ -9977,8 +7520,8 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
-        <v>77</v>
+      <c r="B16" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -10014,7 +7557,7 @@
         <v>54</v>
       </c>
       <c r="P16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -10084,8 +7627,8 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="19" t="s">
-        <v>78</v>
+      <c r="B19" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -10121,7 +7664,7 @@
         <v>54</v>
       </c>
       <c r="P19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -10191,8 +7734,8 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
-        <v>79</v>
+      <c r="B22" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="C22" t="s">
         <v>45</v>
@@ -10297,9 +7840,9 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>46</v>
@@ -10337,15 +7880,15 @@
         <v>54</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>42</v>
@@ -10386,8 +7929,8 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
-      <c r="B28" s="19" t="s">
-        <v>77</v>
+      <c r="B28" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
@@ -10423,7 +7966,7 @@
         <v>54</v>
       </c>
       <c r="P28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -10496,8 +8039,8 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="19" t="s">
-        <v>78</v>
+      <c r="B31" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -10533,7 +8076,7 @@
         <v>54</v>
       </c>
       <c r="P31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -10606,8 +8149,8 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="19" t="s">
-        <v>79</v>
+      <c r="B34" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>45</v>
@@ -10712,9 +8255,9 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>46</v>
@@ -10755,13 +8298,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A27:A37"/>
     <mergeCell ref="A15:A25"/>
@@ -10770,6 +8306,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
